--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H2">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I2">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J2">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>0.5689267315044444</v>
+        <v>20.8097577675</v>
       </c>
       <c r="R2">
-        <v>5.12034058354</v>
+        <v>187.2878199075</v>
       </c>
       <c r="S2">
-        <v>6.218241164012002E-05</v>
+        <v>0.001970498147061505</v>
       </c>
       <c r="T2">
-        <v>6.218241164012003E-05</v>
+        <v>0.001970498147061505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H3">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I3">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J3">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>135.68893775145</v>
+        <v>236.69527439259</v>
       </c>
       <c r="R3">
-        <v>1221.20043976305</v>
+        <v>2130.25746953331</v>
       </c>
       <c r="S3">
-        <v>0.01483049558940504</v>
+        <v>0.02241292785912353</v>
       </c>
       <c r="T3">
-        <v>0.01483049558940504</v>
+        <v>0.02241292785912353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H4">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I4">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J4">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>64.84347940891223</v>
+        <v>96.106425227982</v>
       </c>
       <c r="R4">
-        <v>583.5913146802101</v>
+        <v>864.957827051838</v>
       </c>
       <c r="S4">
-        <v>0.007087246398354773</v>
+        <v>0.009100419858236277</v>
       </c>
       <c r="T4">
-        <v>0.007087246398354773</v>
+        <v>0.009100419858236277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H5">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I5">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J5">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>87.51654215630001</v>
+        <v>198.166258113174</v>
       </c>
       <c r="R5">
-        <v>787.6488794067</v>
+        <v>1783.496323018566</v>
       </c>
       <c r="S5">
-        <v>0.00956536114113044</v>
+        <v>0.01876457423411098</v>
       </c>
       <c r="T5">
-        <v>0.009565361141130439</v>
+        <v>0.01876457423411098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H6">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I6">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J6">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>17.82887112880833</v>
+        <v>35.424455429025</v>
       </c>
       <c r="R6">
-        <v>160.459840159275</v>
+        <v>318.820098861225</v>
       </c>
       <c r="S6">
-        <v>0.001948655498535931</v>
+        <v>0.003354379448499587</v>
       </c>
       <c r="T6">
-        <v>0.001948655498535931</v>
+        <v>0.003354379448499587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H7">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I7">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J7">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N7">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q7">
-        <v>68.98945384089278</v>
+        <v>183.162857339826</v>
       </c>
       <c r="R7">
-        <v>620.905084568035</v>
+        <v>1648.465716058434</v>
       </c>
       <c r="S7">
-        <v>0.007540392075122491</v>
+        <v>0.01734388622064089</v>
       </c>
       <c r="T7">
-        <v>0.007540392075122491</v>
+        <v>0.01734388622064089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>229.881485</v>
       </c>
       <c r="I8">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J8">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N8">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q8">
-        <v>11.92860134142444</v>
+        <v>250.1238268736111</v>
       </c>
       <c r="R8">
-        <v>107.35741207282</v>
+        <v>2251.1144418625</v>
       </c>
       <c r="S8">
-        <v>0.00130376928667404</v>
+        <v>0.0236844918089402</v>
       </c>
       <c r="T8">
-        <v>0.00130376928667404</v>
+        <v>0.0236844918089402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>229.881485</v>
       </c>
       <c r="I9">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J9">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P9">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q9">
         <v>2844.96958087785</v>
@@ -1013,10 +1013,10 @@
         <v>25604.72622790065</v>
       </c>
       <c r="S9">
-        <v>0.310948773867526</v>
+        <v>0.2693932024678072</v>
       </c>
       <c r="T9">
-        <v>0.3109487738675261</v>
+        <v>0.2693932024678071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>229.881485</v>
       </c>
       <c r="I10">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J10">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N10">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q10">
-        <v>1359.563494958992</v>
+        <v>1155.155534905263</v>
       </c>
       <c r="R10">
-        <v>12236.07145463093</v>
+        <v>10396.39981414737</v>
       </c>
       <c r="S10">
-        <v>0.1485972309138367</v>
+        <v>0.1093829090434492</v>
       </c>
       <c r="T10">
-        <v>0.1485972309138367</v>
+        <v>0.1093829090434492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>229.881485</v>
       </c>
       <c r="I11">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J11">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N11">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O11">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P11">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q11">
-        <v>1834.9461966779</v>
+        <v>2381.868323037455</v>
       </c>
       <c r="R11">
-        <v>16514.5157701011</v>
+        <v>21436.81490733709</v>
       </c>
       <c r="S11">
-        <v>0.2005554905770963</v>
+        <v>0.2255416506779288</v>
       </c>
       <c r="T11">
-        <v>0.2005554905770963</v>
+        <v>0.2255416506779287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>229.881485</v>
       </c>
       <c r="I12">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J12">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N12">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O12">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P12">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q12">
-        <v>373.8152635240083</v>
+        <v>425.7858479573194</v>
       </c>
       <c r="R12">
-        <v>3364.337371716075</v>
+        <v>3832.072631615875</v>
       </c>
       <c r="S12">
-        <v>0.04085716720032206</v>
+        <v>0.04031811584828962</v>
       </c>
       <c r="T12">
-        <v>0.04085716720032208</v>
+        <v>0.04031811584828962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>229.881485</v>
       </c>
       <c r="I13">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J13">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N13">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q13">
-        <v>1446.491518256573</v>
+        <v>2201.534267279768</v>
       </c>
       <c r="R13">
-        <v>13018.42366430916</v>
+        <v>19813.80840551791</v>
       </c>
       <c r="S13">
-        <v>0.1580982682679057</v>
+        <v>0.2084656266947193</v>
       </c>
       <c r="T13">
-        <v>0.1580982682679057</v>
+        <v>0.2084656266947193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,40 +1293,40 @@
         <v>0.029252</v>
       </c>
       <c r="I14">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J14">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N14">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q14">
-        <v>0.001517892780444444</v>
+        <v>0.03182780111111111</v>
       </c>
       <c r="R14">
-        <v>0.013661035024</v>
+        <v>0.28645021</v>
       </c>
       <c r="S14">
-        <v>1.659022655686647E-07</v>
+        <v>3.013808416955018E-06</v>
       </c>
       <c r="T14">
-        <v>1.659022655686648E-07</v>
+        <v>3.013808416955018E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>0.029252</v>
       </c>
       <c r="I15">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J15">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P15">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q15">
-        <v>0.36201719412</v>
+        <v>0.3620171941199999</v>
       </c>
       <c r="R15">
         <v>3.25815474708</v>
       </c>
       <c r="S15">
-        <v>3.956766476070429E-05</v>
+        <v>3.427979403642836E-05</v>
       </c>
       <c r="T15">
-        <v>3.95676647607043E-05</v>
+        <v>3.427979403642836E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>0.029252</v>
       </c>
       <c r="I16">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J16">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N16">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q16">
-        <v>0.1730019768862222</v>
+        <v>0.1469914365093333</v>
       </c>
       <c r="R16">
-        <v>1.557017791976</v>
+        <v>1.322922928584</v>
       </c>
       <c r="S16">
-        <v>1.890872681065007E-05</v>
+        <v>1.391877582198052E-05</v>
       </c>
       <c r="T16">
-        <v>1.890872681065007E-05</v>
+        <v>1.391877582198052E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>0.029252</v>
       </c>
       <c r="I17">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J17">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N17">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O17">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P17">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q17">
-        <v>0.23349355928</v>
+        <v>0.3030884030764445</v>
       </c>
       <c r="R17">
-        <v>2.10144203352</v>
+        <v>2.727795627688</v>
       </c>
       <c r="S17">
-        <v>2.55203206572344E-05</v>
+        <v>2.869976399200123E-05</v>
       </c>
       <c r="T17">
-        <v>2.55203206572344E-05</v>
+        <v>2.869976399200123E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>0.029252</v>
       </c>
       <c r="I18">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J18">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N18">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O18">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P18">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q18">
-        <v>0.04756731099333333</v>
+        <v>0.05418047314444444</v>
       </c>
       <c r="R18">
-        <v>0.4281057989399999</v>
+        <v>0.4876242583000001</v>
       </c>
       <c r="S18">
-        <v>5.199000062766347E-06</v>
+        <v>5.130406760658293E-06</v>
       </c>
       <c r="T18">
-        <v>5.199000062766348E-06</v>
+        <v>5.130406760658293E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>0.029252</v>
       </c>
       <c r="I19">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J19">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N19">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q19">
-        <v>0.1840634094217778</v>
+        <v>0.2801412231457778</v>
       </c>
       <c r="R19">
-        <v>1.656570684796</v>
+        <v>2.521271008312</v>
       </c>
       <c r="S19">
-        <v>2.011771649801539E-05</v>
+        <v>2.652687106172961E-05</v>
       </c>
       <c r="T19">
-        <v>2.011771649801539E-05</v>
+        <v>2.652687106172961E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H20">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I20">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J20">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N20">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q20">
-        <v>1.343092420124</v>
+        <v>14.17399526888889</v>
       </c>
       <c r="R20">
-        <v>12.087831781116</v>
+        <v>127.56595742</v>
       </c>
       <c r="S20">
-        <v>0.000146796979495106</v>
+        <v>0.001342150722072508</v>
       </c>
       <c r="T20">
-        <v>0.000146796979495106</v>
+        <v>0.001342150722072508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H21">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I21">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J21">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P21">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q21">
-        <v>320.3273351328301</v>
+        <v>161.21848879224</v>
       </c>
       <c r="R21">
-        <v>2882.94601619547</v>
+        <v>1450.96639913016</v>
       </c>
       <c r="S21">
-        <v>0.03501105697765356</v>
+        <v>0.01526595056927132</v>
       </c>
       <c r="T21">
-        <v>0.03501105697765357</v>
+        <v>0.01526595056927132</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H22">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I22">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J22">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N22">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q22">
-        <v>153.079088863126</v>
+        <v>65.46025339221868</v>
       </c>
       <c r="R22">
-        <v>1377.711799768134</v>
+        <v>589.142280529968</v>
       </c>
       <c r="S22">
-        <v>0.01673119997721017</v>
+        <v>0.006198501177029307</v>
       </c>
       <c r="T22">
-        <v>0.01673119997721017</v>
+        <v>0.006198501177029307</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H23">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I23">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J23">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N23">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O23">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P23">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q23">
-        <v>206.60446749402</v>
+        <v>134.9755069872196</v>
       </c>
       <c r="R23">
-        <v>1859.44020744618</v>
+        <v>1214.779562884976</v>
       </c>
       <c r="S23">
-        <v>0.0225814034268147</v>
+        <v>0.01278097464605691</v>
       </c>
       <c r="T23">
-        <v>0.0225814034268147</v>
+        <v>0.01278097464605691</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H24">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I24">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J24">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N24">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O24">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P24">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q24">
-        <v>42.089464858065</v>
+        <v>24.12839540295555</v>
       </c>
       <c r="R24">
-        <v>378.805183722585</v>
+        <v>217.1555586266</v>
       </c>
       <c r="S24">
-        <v>0.004600283805606553</v>
+        <v>0.002284743482566887</v>
       </c>
       <c r="T24">
-        <v>0.004600283805606554</v>
+        <v>0.002284743482566887</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H25">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I25">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J25">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N25">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q25">
-        <v>162.866688083321</v>
+        <v>124.7563523985582</v>
       </c>
       <c r="R25">
-        <v>1465.800192749889</v>
+        <v>1122.807171587024</v>
       </c>
       <c r="S25">
-        <v>0.01780096254939461</v>
+        <v>0.01181331200401784</v>
       </c>
       <c r="T25">
-        <v>0.01780096254939461</v>
+        <v>0.01181331200401784</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H26">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I26">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J26">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N26">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q26">
-        <v>0.01014552435866667</v>
+        <v>0.1166264988888889</v>
       </c>
       <c r="R26">
-        <v>0.09130971922799999</v>
+        <v>1.04963849</v>
       </c>
       <c r="S26">
-        <v>1.108882984470113E-06</v>
+        <v>1.104348750842932E-05</v>
       </c>
       <c r="T26">
-        <v>1.108882984470114E-06</v>
+        <v>1.104348750842932E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H27">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I27">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J27">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P27">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q27">
-        <v>2.41970599539</v>
+        <v>1.32653832228</v>
       </c>
       <c r="R27">
-        <v>21.77735395851</v>
+        <v>11.93884490052</v>
       </c>
       <c r="S27">
-        <v>0.0002644684208378279</v>
+        <v>0.0001256113278810571</v>
       </c>
       <c r="T27">
-        <v>0.000264468420837828</v>
+        <v>0.0001256113278810571</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H28">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I28">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J28">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N28">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q28">
-        <v>1.156337122891333</v>
+        <v>0.5386202002106667</v>
       </c>
       <c r="R28">
-        <v>10.407034106022</v>
+        <v>4.847581801896</v>
       </c>
       <c r="S28">
-        <v>0.0001263850457162413</v>
+        <v>5.100252094921536E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001263850457162413</v>
+        <v>5.100252094921536E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H29">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I29">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J29">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N29">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O29">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P29">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q29">
-        <v>1.56066003066</v>
+        <v>1.110605761963556</v>
       </c>
       <c r="R29">
-        <v>14.04594027594</v>
+        <v>9.995451857672002</v>
       </c>
       <c r="S29">
-        <v>0.0001705766297887944</v>
+        <v>0.0001051644435517103</v>
       </c>
       <c r="T29">
-        <v>0.0001705766297887944</v>
+        <v>0.0001051644435517102</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H30">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I30">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J30">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N30">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O30">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P30">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q30">
-        <v>0.317937682145</v>
+        <v>0.1985333158555556</v>
       </c>
       <c r="R30">
-        <v>2.861439139305</v>
+        <v>1.7867998427</v>
       </c>
       <c r="S30">
-        <v>3.474987328292128E-05</v>
+        <v>1.879933132303573E-05</v>
       </c>
       <c r="T30">
-        <v>3.474987328292129E-05</v>
+        <v>1.879933132303573E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H31">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I31">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J31">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N31">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q31">
-        <v>1.230271220659667</v>
+        <v>1.026520491814222</v>
       </c>
       <c r="R31">
-        <v>11.072440985937</v>
+        <v>9.238684426328</v>
       </c>
       <c r="S31">
-        <v>0.0001344658762469394</v>
+        <v>9.720231968291651E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001344658762469394</v>
+        <v>9.72023196829165E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H32">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I32">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J32">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N32">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q32">
-        <v>0.01236767123511111</v>
+        <v>0.01748505277777778</v>
       </c>
       <c r="R32">
-        <v>0.111309041116</v>
+        <v>0.157365475</v>
       </c>
       <c r="S32">
-        <v>1.351758638124992E-06</v>
+        <v>1.655678287312564E-06</v>
       </c>
       <c r="T32">
-        <v>1.351758638124992E-06</v>
+        <v>1.655678287312564E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H33">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I33">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J33">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>111.38229</v>
       </c>
       <c r="O33">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P33">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q33">
-        <v>2.94968768283</v>
+        <v>0.1988792667</v>
       </c>
       <c r="R33">
-        <v>26.54718914547</v>
+        <v>1.7899134003</v>
       </c>
       <c r="S33">
-        <v>0.0003223942267899816</v>
+        <v>1.883208977729399E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003223942267899817</v>
+        <v>1.883208977729399E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H34">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I34">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J34">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N34">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q34">
-        <v>1.409606528681556</v>
+        <v>0.08075182499333335</v>
       </c>
       <c r="R34">
-        <v>12.686458758134</v>
+        <v>0.7267664249400001</v>
       </c>
       <c r="S34">
-        <v>0.0001540668219004092</v>
+        <v>7.646476393382568E-06</v>
       </c>
       <c r="T34">
-        <v>0.0001540668219004092</v>
+        <v>7.646476393382568E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H35">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I35">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J35">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N35">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O35">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P35">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q35">
-        <v>1.90248719402</v>
+        <v>0.1665059017311111</v>
       </c>
       <c r="R35">
-        <v>17.12238474618</v>
+        <v>1.49855311558</v>
       </c>
       <c r="S35">
-        <v>0.0002079375696159996</v>
+        <v>1.57666213370525E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002079375696159996</v>
+        <v>1.57666213370525E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H36">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I36">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J36">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N36">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O36">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P36">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q36">
-        <v>0.3875747163983333</v>
+        <v>0.02976480936111111</v>
       </c>
       <c r="R36">
-        <v>3.488172447585</v>
+        <v>0.26788328425</v>
       </c>
       <c r="S36">
-        <v>4.236104444003554E-05</v>
+        <v>2.818461528913536E-06</v>
       </c>
       <c r="T36">
-        <v>4.236104444003554E-05</v>
+        <v>2.818461528913536E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H37">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I37">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J37">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N37">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q37">
-        <v>1.499734212765444</v>
+        <v>0.1538995438244445</v>
       </c>
       <c r="R37">
-        <v>13.497607914889</v>
+        <v>1.38509589442</v>
       </c>
       <c r="S37">
-        <v>0.0001639175749790264</v>
+        <v>1.457291186797466E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001639175749790264</v>
+        <v>1.457291186797466E-05</v>
       </c>
     </row>
   </sheetData>
